--- a/Departments/INDG.xlsx
+++ b/Departments/INDG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72405941-6F16-4FD8-A760-13BB4288A107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89241B4-CF1D-43D4-B17B-DF6BF8AF50FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04F98F71-921D-4DF2-805B-98365A93348C}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{04F98F71-921D-4DF2-805B-98365A93348C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -370,6 +364,12 @@
   </si>
   <si>
     <t>INDG 447 - Directed Studies in Indigenous Studies</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I43"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -743,1129 +743,1129 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
         <v>64</v>
       </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
         <v>65</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
         <v>83</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
         <v>84</v>
-      </c>
-      <c r="D32" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" t="s">
         <v>87</v>
-      </c>
-      <c r="D33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
-        <v>87</v>
-      </c>
-      <c r="H33" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
         <v>100</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/INDG.xlsx
+++ b/Departments/INDG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89241B4-CF1D-43D4-B17B-DF6BF8AF50FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09946127-E7EF-47BF-A653-45A70268A682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{04F98F71-921D-4DF2-805B-98365A93348C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{04F98F71-921D-4DF2-805B-98365A93348C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="118">
   <si>
     <t>Course_Code</t>
   </si>
@@ -114,9 +114,6 @@
     <t>INDG232</t>
   </si>
   <si>
-    <t>INDG 232 - Introduction to Ethnoecology in Indigenous Studies</t>
-  </si>
-  <si>
     <t>INDG250</t>
   </si>
   <si>
@@ -370,6 +367,30 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>INDG 232 - Indigenous Science</t>
+  </si>
+  <si>
+    <t>INDG101,INDG111,INDG201W</t>
+  </si>
+  <si>
+    <t>REQ-45 units and one of INDG 101 or 201W, or permission of instructor. Students with INDG 322 under this topic may not take this course for further credit. INDG 327 and GSWS 327 are identical and students may not take both courses for credit.</t>
+  </si>
+  <si>
+    <t>REQ-45 units or permission of instructor. No prior artistic training/experience required. Students with credit for INDG/FNST 322 (topic: Indigenous Expressive Arts - crafts focus) or FNST 383 may not take for further credit.</t>
+  </si>
+  <si>
+    <t>INDG101,INDG201W,INDG250</t>
+  </si>
+  <si>
+    <t>REQ-45 units, INDG (or FNST) 101 and one of INDG (or FNST) 201W or 250, or permission of the instructor.  Students with credit for FNST 401 may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-60 units and one of INDG (or FNST) 101 or 201W, or permission of the instructor. Students with credit for INDG (or FNST) 402 or FNST 402W may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-45 units and one of INDG (or FNST) 101 or 201W, or permission of the instructor.  Students with credit for FNST 433 may not take this course for further credit.</t>
   </si>
 </sst>
 </file>
@@ -724,7 +745,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A2" sqref="A2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -743,10 +764,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
         <v>109</v>
-      </c>
-      <c r="F1" t="s">
-        <v>110</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -760,16 +781,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -781,38 +802,38 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -821,7 +842,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -838,7 +859,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -847,7 +868,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -864,7 +885,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -873,10 +894,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -890,7 +911,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -899,10 +920,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -916,7 +937,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -925,10 +946,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -938,14 +959,11 @@
       </c>
       <c r="H8" t="s">
         <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -954,10 +972,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -971,7 +989,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -980,24 +998,27 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1006,10 +1027,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1019,14 +1040,11 @@
       </c>
       <c r="H11" t="s">
         <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1035,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -1052,7 +1070,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1061,7 +1079,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -1078,7 +1096,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1087,7 +1105,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
@@ -1104,7 +1122,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1113,10 +1131,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1126,11 +1144,14 @@
       </c>
       <c r="H15" t="s">
         <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1139,10 +1160,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1156,7 +1177,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1165,10 +1186,10 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1182,7 +1203,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1191,10 +1212,10 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1208,7 +1229,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1217,10 +1238,10 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1232,12 +1253,12 @@
         <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1246,7 +1267,7 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1263,7 +1284,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1272,7 +1293,7 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -1286,13 +1307,10 @@
       <c r="H21" t="s">
         <v>13</v>
       </c>
-      <c r="I21" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1301,10 +1319,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1318,7 +1336,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1327,13 +1345,13 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
@@ -1342,12 +1360,12 @@
         <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1356,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1373,7 +1391,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1382,10 +1400,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1399,7 +1417,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1408,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
         <v>23</v>
@@ -1425,7 +1443,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -1434,10 +1452,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1451,7 +1469,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1460,10 +1478,10 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -1477,7 +1495,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1486,10 +1504,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -1503,7 +1521,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1512,10 +1530,10 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1525,11 +1543,14 @@
       </c>
       <c r="H30" t="s">
         <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1538,10 +1559,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -1551,23 +1572,26 @@
       </c>
       <c r="H31" t="s">
         <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -1576,38 +1600,41 @@
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1616,24 +1643,27 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1642,10 +1672,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -1659,7 +1689,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -1668,7 +1698,7 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1685,7 +1715,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -1694,10 +1724,10 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -1711,7 +1741,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -1720,10 +1750,10 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -1733,11 +1763,14 @@
       </c>
       <c r="H38" t="s">
         <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -1746,13 +1779,13 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
         <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
@@ -1761,12 +1794,12 @@
         <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -1775,7 +1808,7 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -1792,7 +1825,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -1801,10 +1834,10 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
@@ -1818,7 +1851,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -1827,10 +1860,10 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -1844,7 +1877,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -1853,10 +1886,10 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -1866,6 +1899,9 @@
       </c>
       <c r="H43" t="s">
         <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
